--- a/CashFlow/MSI_cashflow.xlsx
+++ b/CashFlow/MSI_cashflow.xlsx
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1888000000.0</v>
+        <v>-14000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1827000000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1311000000.0</v>
+        <v>-10000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>864000000.0</v>
+        <v>-9000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>359000000.0</v>
+        <v>-74000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-78000000.0</v>
@@ -870,19 +870,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2177000000.0</v>
+        <v>-116000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2183000000.0</v>
+        <v>-38000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1849000000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1267000000.0</v>
+        <v>158000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>475000000.0</v>
+        <v>198000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>298000000.0</v>
